--- a/data/regional-accounts/import.xlsx
+++ b/data/regional-accounts/import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Recon\swedish-regional-accounts\data\regional-accounts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C010A99B-8D72-4E5F-880E-E21E96285AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10D35B4-43CC-4F7B-86A4-25E6456586A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-180" windowWidth="29040" windowHeight="17640" xr2:uid="{17EADE74-2037-472F-932E-4918AA85FE26}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{17EADE74-2037-472F-932E-4918AA85FE26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,15 +33,110 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>Stockholms län</t>
+  </si>
+  <si>
+    <t>Uppsala län</t>
+  </si>
+  <si>
+    <t>Södermanlands län</t>
+  </si>
+  <si>
+    <t>Östergötlands län</t>
+  </si>
+  <si>
+    <t>Jönköpings län</t>
+  </si>
+  <si>
+    <t>Kronobergs län</t>
+  </si>
+  <si>
+    <t>Kalmar län</t>
+  </si>
+  <si>
+    <t>Gotlands län</t>
+  </si>
+  <si>
+    <t>Blekinge län</t>
+  </si>
+  <si>
+    <t>Kristianstads län</t>
+  </si>
+  <si>
+    <t>Malmöhus län</t>
+  </si>
+  <si>
+    <t>Hallands län</t>
+  </si>
+  <si>
+    <t>Älvsborgs län</t>
+  </si>
+  <si>
+    <t>Skaraborgs län</t>
+  </si>
+  <si>
+    <t>Värmlands län</t>
+  </si>
+  <si>
+    <t>Örebro län</t>
+  </si>
+  <si>
+    <t>Västmanlands län</t>
+  </si>
+  <si>
+    <t>Kopparbergs län</t>
+  </si>
+  <si>
+    <t>Västernorrlands län</t>
+  </si>
+  <si>
+    <t>Jämtlands län</t>
+  </si>
+  <si>
+    <t>Västerbottens län</t>
+  </si>
+  <si>
+    <t>Norrbottens län</t>
+  </si>
+  <si>
+    <t>Göteborg/Bohus län</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>Gävlesborgs län</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -52,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -60,12 +155,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,12 +511,966 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AC65FB-69DA-4D77-AD52-0C848A12D3B9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1750</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1760</v>
+      </c>
+      <c r="D1" s="2">
+        <v>1769</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1772</v>
+      </c>
+      <c r="F1" s="2">
+        <v>1795</v>
+      </c>
+      <c r="G1" s="2">
+        <v>1800</v>
+      </c>
+      <c r="H1" s="2">
+        <v>1810</v>
+      </c>
+      <c r="I1" s="2">
+        <v>1820</v>
+      </c>
+      <c r="J1" s="2">
+        <v>1830</v>
+      </c>
+      <c r="K1" s="2">
+        <v>1840</v>
+      </c>
+      <c r="L1" s="2">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>146694</v>
+      </c>
+      <c r="C2" s="5">
+        <v>164709</v>
+      </c>
+      <c r="D2" s="5">
+        <v>168177</v>
+      </c>
+      <c r="E2" s="5">
+        <v>177719</v>
+      </c>
+      <c r="F2" s="5">
+        <v>161117</v>
+      </c>
+      <c r="G2" s="5">
+        <v>172133</v>
+      </c>
+      <c r="H2" s="5">
+        <v>163347</v>
+      </c>
+      <c r="I2" s="5">
+        <v>172505</v>
+      </c>
+      <c r="J2" s="5">
+        <v>183913</v>
+      </c>
+      <c r="K2" s="5">
+        <v>193436</v>
+      </c>
+      <c r="L2" s="5">
+        <v>206483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>63719</v>
+      </c>
+      <c r="C3" s="5">
+        <v>66948</v>
+      </c>
+      <c r="D3" s="5">
+        <v>70880</v>
+      </c>
+      <c r="E3" s="5">
+        <v>73012</v>
+      </c>
+      <c r="F3" s="5">
+        <v>75215</v>
+      </c>
+      <c r="G3" s="5">
+        <v>81290</v>
+      </c>
+      <c r="H3" s="5">
+        <v>81166</v>
+      </c>
+      <c r="I3" s="5">
+        <v>79860</v>
+      </c>
+      <c r="J3" s="5">
+        <v>81389</v>
+      </c>
+      <c r="K3" s="5">
+        <v>84853</v>
+      </c>
+      <c r="L3" s="5">
+        <v>88794</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>79597</v>
+      </c>
+      <c r="C4" s="5">
+        <v>82733</v>
+      </c>
+      <c r="D4" s="5">
+        <v>86223</v>
+      </c>
+      <c r="E4" s="5">
+        <v>89943</v>
+      </c>
+      <c r="F4" s="5">
+        <v>90573</v>
+      </c>
+      <c r="G4" s="5">
+        <v>96736</v>
+      </c>
+      <c r="H4" s="5">
+        <v>99384</v>
+      </c>
+      <c r="I4" s="5">
+        <v>100842</v>
+      </c>
+      <c r="J4" s="5">
+        <v>107859</v>
+      </c>
+      <c r="K4" s="5">
+        <v>114326</v>
+      </c>
+      <c r="L4" s="5">
+        <v>119402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>128556</v>
+      </c>
+      <c r="C5" s="5">
+        <v>135051</v>
+      </c>
+      <c r="D5" s="5">
+        <v>141480</v>
+      </c>
+      <c r="E5" s="5">
+        <v>146815</v>
+      </c>
+      <c r="F5" s="5">
+        <v>148691</v>
+      </c>
+      <c r="G5" s="5">
+        <v>158366</v>
+      </c>
+      <c r="H5" s="5">
+        <v>164513</v>
+      </c>
+      <c r="I5" s="5">
+        <v>171781</v>
+      </c>
+      <c r="J5" s="5">
+        <v>186799</v>
+      </c>
+      <c r="K5" s="5">
+        <v>205558</v>
+      </c>
+      <c r="L5" s="5">
+        <v>221166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>106024</v>
+      </c>
+      <c r="C6" s="5">
+        <v>114129</v>
+      </c>
+      <c r="D6" s="5">
+        <v>117144</v>
+      </c>
+      <c r="E6" s="5">
+        <v>120048</v>
+      </c>
+      <c r="F6" s="5">
+        <v>108707</v>
+      </c>
+      <c r="G6" s="5">
+        <v>114704</v>
+      </c>
+      <c r="H6" s="5">
+        <v>116980</v>
+      </c>
+      <c r="I6" s="5">
+        <v>121015</v>
+      </c>
+      <c r="J6" s="5">
+        <v>136884</v>
+      </c>
+      <c r="K6" s="5">
+        <v>149700</v>
+      </c>
+      <c r="L6" s="5">
+        <v>162458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>67098</v>
+      </c>
+      <c r="C7" s="5">
+        <v>71693</v>
+      </c>
+      <c r="D7" s="5">
+        <v>76733</v>
+      </c>
+      <c r="E7" s="5">
+        <v>77101</v>
+      </c>
+      <c r="F7" s="5">
+        <v>82269</v>
+      </c>
+      <c r="G7" s="5">
+        <v>87775</v>
+      </c>
+      <c r="H7" s="5">
+        <v>90634</v>
+      </c>
+      <c r="I7" s="5">
+        <v>95593</v>
+      </c>
+      <c r="J7" s="5">
+        <v>108271</v>
+      </c>
+      <c r="K7" s="5">
+        <v>120827</v>
+      </c>
+      <c r="L7" s="5">
+        <v>135814</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>95788</v>
+      </c>
+      <c r="C8" s="5">
+        <v>105984</v>
+      </c>
+      <c r="D8" s="5">
+        <v>116134</v>
+      </c>
+      <c r="E8" s="5">
+        <v>120945</v>
+      </c>
+      <c r="F8" s="5">
+        <v>124360</v>
+      </c>
+      <c r="G8" s="5">
+        <v>129801</v>
+      </c>
+      <c r="H8" s="5">
+        <v>139432</v>
+      </c>
+      <c r="I8" s="5">
+        <v>149237</v>
+      </c>
+      <c r="J8" s="5">
+        <v>165027</v>
+      </c>
+      <c r="K8" s="5">
+        <v>183604</v>
+      </c>
+      <c r="L8" s="5">
+        <v>200981</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>24494</v>
+      </c>
+      <c r="C9" s="5">
+        <v>25739</v>
+      </c>
+      <c r="D9" s="5">
+        <v>28039</v>
+      </c>
+      <c r="E9" s="5">
+        <v>29074</v>
+      </c>
+      <c r="F9" s="5">
+        <v>28788</v>
+      </c>
+      <c r="G9" s="5">
+        <v>31352</v>
+      </c>
+      <c r="H9" s="5">
+        <v>32845</v>
+      </c>
+      <c r="I9" s="5">
+        <v>35406</v>
+      </c>
+      <c r="J9" s="5">
+        <v>38786</v>
+      </c>
+      <c r="K9" s="5">
+        <v>41360</v>
+      </c>
+      <c r="L9" s="5">
+        <v>44308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>35596</v>
+      </c>
+      <c r="C10" s="5">
+        <v>40074</v>
+      </c>
+      <c r="D10" s="5">
+        <v>42279</v>
+      </c>
+      <c r="E10" s="5">
+        <v>56359</v>
+      </c>
+      <c r="F10" s="5">
+        <v>57547</v>
+      </c>
+      <c r="G10" s="5">
+        <v>62524</v>
+      </c>
+      <c r="H10" s="5">
+        <v>69701</v>
+      </c>
+      <c r="I10" s="5">
+        <v>78601</v>
+      </c>
+      <c r="J10" s="5">
+        <v>85364</v>
+      </c>
+      <c r="K10" s="5">
+        <v>95312</v>
+      </c>
+      <c r="L10" s="5">
+        <v>107188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>90086</v>
+      </c>
+      <c r="C11" s="5">
+        <v>94864</v>
+      </c>
+      <c r="D11" s="5">
+        <v>103445</v>
+      </c>
+      <c r="E11" s="5">
+        <v>103742</v>
+      </c>
+      <c r="F11" s="5">
+        <v>108645</v>
+      </c>
+      <c r="G11" s="5">
+        <v>116909</v>
+      </c>
+      <c r="H11" s="5">
+        <v>121392</v>
+      </c>
+      <c r="I11" s="5">
+        <v>134086</v>
+      </c>
+      <c r="J11" s="5">
+        <v>149722</v>
+      </c>
+      <c r="K11" s="5">
+        <v>165023</v>
+      </c>
+      <c r="L11" s="5">
+        <v>188504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <v>104873</v>
+      </c>
+      <c r="C12" s="5">
+        <v>109654</v>
+      </c>
+      <c r="D12" s="5">
+        <v>118696</v>
+      </c>
+      <c r="E12" s="5">
+        <v>120361</v>
+      </c>
+      <c r="F12" s="5">
+        <v>131198</v>
+      </c>
+      <c r="G12" s="5">
+        <v>142334</v>
+      </c>
+      <c r="H12" s="5">
+        <v>154948</v>
+      </c>
+      <c r="I12" s="5">
+        <v>175854</v>
+      </c>
+      <c r="J12" s="5">
+        <v>199239</v>
+      </c>
+      <c r="K12" s="5">
+        <v>220525</v>
+      </c>
+      <c r="L12" s="5">
+        <v>251585</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
+        <v>58074</v>
+      </c>
+      <c r="C13" s="5">
+        <v>63187</v>
+      </c>
+      <c r="D13" s="5">
+        <v>66557</v>
+      </c>
+      <c r="E13" s="5">
+        <v>68535</v>
+      </c>
+      <c r="F13" s="5">
+        <v>66827</v>
+      </c>
+      <c r="G13" s="5">
+        <v>71739</v>
+      </c>
+      <c r="H13" s="5">
+        <v>74224</v>
+      </c>
+      <c r="I13" s="5">
+        <v>79738</v>
+      </c>
+      <c r="J13" s="5">
+        <v>88591</v>
+      </c>
+      <c r="K13" s="5">
+        <v>94444</v>
+      </c>
+      <c r="L13" s="5">
+        <v>105100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="5">
+        <v>76326</v>
+      </c>
+      <c r="C14" s="5">
+        <v>82059</v>
+      </c>
+      <c r="D14" s="5">
+        <v>90369</v>
+      </c>
+      <c r="E14" s="5">
+        <v>91527</v>
+      </c>
+      <c r="F14" s="5">
+        <v>106054</v>
+      </c>
+      <c r="G14" s="5">
+        <v>116902</v>
+      </c>
+      <c r="H14" s="5">
+        <v>117472</v>
+      </c>
+      <c r="I14" s="5">
+        <v>134321</v>
+      </c>
+      <c r="J14" s="5">
+        <v>153389</v>
+      </c>
+      <c r="K14" s="5">
+        <v>164122</v>
+      </c>
+      <c r="L14" s="5">
+        <v>186472</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5">
+        <v>115534</v>
+      </c>
+      <c r="C15" s="5">
+        <v>121787</v>
+      </c>
+      <c r="D15" s="5">
+        <v>130393</v>
+      </c>
+      <c r="E15" s="5">
+        <v>131439</v>
+      </c>
+      <c r="F15" s="5">
+        <v>142103</v>
+      </c>
+      <c r="G15" s="5">
+        <v>153236</v>
+      </c>
+      <c r="H15" s="5">
+        <v>153476</v>
+      </c>
+      <c r="I15" s="5">
+        <v>169316</v>
+      </c>
+      <c r="J15" s="5">
+        <v>196843</v>
+      </c>
+      <c r="K15" s="5">
+        <v>217489</v>
+      </c>
+      <c r="L15" s="5">
+        <v>244678</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5">
+        <v>97648</v>
+      </c>
+      <c r="C16" s="5">
+        <v>107675</v>
+      </c>
+      <c r="D16" s="5">
+        <v>114048</v>
+      </c>
+      <c r="E16" s="5">
+        <v>114651</v>
+      </c>
+      <c r="F16" s="5">
+        <v>129436</v>
+      </c>
+      <c r="G16" s="5">
+        <v>135962</v>
+      </c>
+      <c r="H16" s="5">
+        <v>136479</v>
+      </c>
+      <c r="I16" s="5">
+        <v>147873</v>
+      </c>
+      <c r="J16" s="5">
+        <v>166661</v>
+      </c>
+      <c r="K16" s="5">
+        <v>180113</v>
+      </c>
+      <c r="L16" s="5">
+        <v>198713</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5">
+        <v>100424</v>
+      </c>
+      <c r="C17" s="5">
+        <v>107879</v>
+      </c>
+      <c r="D17" s="5">
+        <v>114918</v>
+      </c>
+      <c r="E17" s="5">
+        <v>116558</v>
+      </c>
+      <c r="F17" s="5">
+        <v>124792</v>
+      </c>
+      <c r="G17" s="5">
+        <v>135703</v>
+      </c>
+      <c r="H17" s="5">
+        <v>135793</v>
+      </c>
+      <c r="I17" s="5">
+        <v>147603</v>
+      </c>
+      <c r="J17" s="5">
+        <v>172111</v>
+      </c>
+      <c r="K17" s="5">
+        <v>194536</v>
+      </c>
+      <c r="L17" s="5">
+        <v>220571</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5">
+        <v>73013</v>
+      </c>
+      <c r="C18" s="5">
+        <v>78433</v>
+      </c>
+      <c r="D18" s="5">
+        <v>83551</v>
+      </c>
+      <c r="E18" s="5">
+        <v>84743</v>
+      </c>
+      <c r="F18" s="5">
+        <v>90730</v>
+      </c>
+      <c r="G18" s="5">
+        <v>95211</v>
+      </c>
+      <c r="H18" s="5">
+        <v>95932</v>
+      </c>
+      <c r="I18" s="5">
+        <v>100014</v>
+      </c>
+      <c r="J18" s="5">
+        <v>115753</v>
+      </c>
+      <c r="K18" s="5">
+        <v>124415</v>
+      </c>
+      <c r="L18" s="5">
+        <v>136845</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5">
+        <v>71754</v>
+      </c>
+      <c r="C19" s="5">
+        <v>73742</v>
+      </c>
+      <c r="D19" s="5">
+        <v>77475</v>
+      </c>
+      <c r="E19" s="5">
+        <v>79644</v>
+      </c>
+      <c r="F19" s="5">
+        <v>77554</v>
+      </c>
+      <c r="G19" s="5">
+        <v>86752</v>
+      </c>
+      <c r="H19" s="5">
+        <v>82802</v>
+      </c>
+      <c r="I19" s="5">
+        <v>85255</v>
+      </c>
+      <c r="J19" s="5">
+        <v>88876</v>
+      </c>
+      <c r="K19" s="5">
+        <v>92016</v>
+      </c>
+      <c r="L19" s="5">
+        <v>96118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5">
+        <v>97160</v>
+      </c>
+      <c r="C20" s="5">
+        <v>105913</v>
+      </c>
+      <c r="D20" s="5">
+        <v>111080</v>
+      </c>
+      <c r="E20" s="5">
+        <v>114775</v>
+      </c>
+      <c r="F20" s="5">
+        <v>114232</v>
+      </c>
+      <c r="G20" s="5">
+        <v>122864</v>
+      </c>
+      <c r="H20" s="5">
+        <v>119519</v>
+      </c>
+      <c r="I20" s="5">
+        <v>122296</v>
+      </c>
+      <c r="J20" s="5">
+        <v>134238</v>
+      </c>
+      <c r="K20" s="5">
+        <v>137427</v>
+      </c>
+      <c r="L20" s="5">
+        <v>150600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="5">
+        <v>53669</v>
+      </c>
+      <c r="C21" s="5">
+        <v>58265</v>
+      </c>
+      <c r="D21" s="5">
+        <v>67640</v>
+      </c>
+      <c r="E21" s="5">
+        <v>70812</v>
+      </c>
+      <c r="F21" s="5">
+        <v>77915</v>
+      </c>
+      <c r="G21" s="5">
+        <v>83423</v>
+      </c>
+      <c r="H21" s="5">
+        <v>84205</v>
+      </c>
+      <c r="I21" s="5">
+        <v>91354</v>
+      </c>
+      <c r="J21" s="5">
+        <v>102292</v>
+      </c>
+      <c r="K21" s="5">
+        <v>109230</v>
+      </c>
+      <c r="L21" s="5">
+        <v>119446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="5">
+        <v>37774</v>
+      </c>
+      <c r="C22" s="5">
+        <v>41008</v>
+      </c>
+      <c r="D22" s="5">
+        <v>43173</v>
+      </c>
+      <c r="E22" s="5">
+        <v>45642</v>
+      </c>
+      <c r="F22" s="5">
+        <v>49728</v>
+      </c>
+      <c r="G22" s="5">
+        <v>55224</v>
+      </c>
+      <c r="H22" s="5">
+        <v>60942</v>
+      </c>
+      <c r="I22" s="5">
+        <v>66790</v>
+      </c>
+      <c r="J22" s="5">
+        <v>78082</v>
+      </c>
+      <c r="K22" s="5">
+        <v>85431</v>
+      </c>
+      <c r="L22" s="5">
+        <v>98968</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="5">
+        <v>20138</v>
+      </c>
+      <c r="C23" s="5">
+        <v>21863</v>
+      </c>
+      <c r="D23" s="5">
+        <v>23017</v>
+      </c>
+      <c r="E23" s="5">
+        <v>24333</v>
+      </c>
+      <c r="F23" s="5">
+        <v>26511</v>
+      </c>
+      <c r="G23" s="5">
+        <v>29441</v>
+      </c>
+      <c r="H23" s="5">
+        <v>33421</v>
+      </c>
+      <c r="I23" s="5">
+        <v>36730</v>
+      </c>
+      <c r="J23" s="5">
+        <v>42043</v>
+      </c>
+      <c r="K23" s="5">
+        <v>45533</v>
+      </c>
+      <c r="L23" s="5">
+        <v>51961</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="5">
+        <v>18344</v>
+      </c>
+      <c r="C24" s="5">
+        <v>20925</v>
+      </c>
+      <c r="D24" s="5">
+        <v>22380</v>
+      </c>
+      <c r="E24" s="5">
+        <v>22901</v>
+      </c>
+      <c r="F24" s="5">
+        <v>32491</v>
+      </c>
+      <c r="G24" s="5">
+        <v>35679</v>
+      </c>
+      <c r="H24" s="5">
+        <v>33979</v>
+      </c>
+      <c r="I24" s="5">
+        <v>40185</v>
+      </c>
+      <c r="J24" s="5">
+        <v>49778</v>
+      </c>
+      <c r="K24" s="5">
+        <v>54321</v>
+      </c>
+      <c r="L24" s="5">
+        <v>67273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="6">
+        <v>18423</v>
+      </c>
+      <c r="C25" s="6">
+        <v>21015</v>
+      </c>
+      <c r="D25" s="6">
+        <v>22476</v>
+      </c>
+      <c r="E25" s="6">
+        <v>22999</v>
+      </c>
+      <c r="F25" s="6">
+        <v>32630</v>
+      </c>
+      <c r="G25" s="6">
+        <v>35832</v>
+      </c>
+      <c r="H25" s="6">
+        <v>32639</v>
+      </c>
+      <c r="I25" s="6">
+        <v>36977</v>
+      </c>
+      <c r="J25" s="6">
+        <v>43697</v>
+      </c>
+      <c r="K25" s="6">
+        <v>49073</v>
+      </c>
+      <c r="L25" s="6">
+        <v>58487</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>